--- a/infrastructure/data/黄金价格(近5年).xlsx
+++ b/infrastructure/data/黄金价格(近5年).xlsx
@@ -425,2092 +425,2092 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>2020年02月07日</t>
+          <t>2020年02月17日</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2020年02月12日</t>
+          <t>2020年02月20日</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2020年02月17日</t>
+          <t>2020年02月25日</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2020年02月20日</t>
+          <t>2020年02月28日</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2020年02月25日</t>
+          <t>2020年03月04日</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2020年02月28日</t>
+          <t>2020年03月09日</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2020年03月04日</t>
+          <t>2020年03月12日</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2020年03月09日</t>
+          <t>2020年03月17日</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>2020年03月12日</t>
+          <t>2020年03月20日</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2020年03月17日</t>
+          <t>2020年03月25日</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>2020年03月20日</t>
+          <t>2020年03月30日</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2020年03月25日</t>
+          <t>2020年04月02日</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>2020年03月30日</t>
+          <t>2020年04月07日</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>2020年04月02日</t>
+          <t>2020年04月14日</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>2020年04月07日</t>
+          <t>2020年04月17日</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>2020年04月14日</t>
+          <t>2020年04月22日</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>2020年04月17日</t>
+          <t>2020年04月27日</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>2020年04月22日</t>
+          <t>2020年04月30日</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>2020年04月27日</t>
+          <t>2020年05月05日</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>2020年04月30日</t>
+          <t>2020年05月11日</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>2020年05月05日</t>
+          <t>2020年05月14日</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>2020年05月11日</t>
+          <t>2020年05月19日</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>2020年05月14日</t>
+          <t>2020年05月22日</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>2020年05月19日</t>
+          <t>2020年05月28日</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>2020年05月22日</t>
+          <t>2020年06月02日</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>2020年05月28日</t>
+          <t>2020年06月05日</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>2020年06月02日</t>
+          <t>2020年06月10日</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>2020年06月05日</t>
+          <t>2020年06月15日</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>2020年06月10日</t>
+          <t>2020年06月18日</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2020年06月15日</t>
+          <t>2020年06月23日</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>2020年06月18日</t>
+          <t>2020年06月26日</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>2020年06月23日</t>
+          <t>2020年07月01日</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>2020年06月26日</t>
+          <t>2020年07月06日</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>2020年07月01日</t>
+          <t>2020年07月09日</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>2020年07月06日</t>
+          <t>2020年07月14日</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>2020年07月09日</t>
+          <t>2020年07月17日</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>2020年07月14日</t>
+          <t>2020年07月22日</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>2020年07月17日</t>
+          <t>2020年07月27日</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>2020年07月22日</t>
+          <t>2020年07月30日</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>2020年07月27日</t>
+          <t>2020年08月04日</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>2020年07月30日</t>
+          <t>2020年08月07日</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>2020年08月04日</t>
+          <t>2020年08月12日</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>2020年08月07日</t>
+          <t>2020年08月17日</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>2020年08月12日</t>
+          <t>2020年08月20日</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>2020年08月17日</t>
+          <t>2020年08月25日</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>2020年08月20日</t>
+          <t>2020年08月28日</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>2020年08月25日</t>
+          <t>2020年09月03日</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>2020年08月28日</t>
+          <t>2020年09月08日</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>2020年09月03日</t>
+          <t>2020年09月11日</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>2020年09月08日</t>
+          <t>2020年09月16日</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
-          <t>2020年09月11日</t>
+          <t>2020年09月21日</t>
         </is>
       </c>
       <c r="BA1" t="inlineStr">
         <is>
-          <t>2020年09月16日</t>
+          <t>2020年09月24日</t>
         </is>
       </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>2020年09月21日</t>
+          <t>2020年09月29日</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>2020年09月24日</t>
+          <t>2020年10月02日</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>2020年09月29日</t>
+          <t>2020年10月07日</t>
         </is>
       </c>
       <c r="BE1" t="inlineStr">
         <is>
-          <t>2020年10月02日</t>
+          <t>2020年10月12日</t>
         </is>
       </c>
       <c r="BF1" t="inlineStr">
         <is>
-          <t>2020年10月07日</t>
+          <t>2020年10月15日</t>
         </is>
       </c>
       <c r="BG1" t="inlineStr">
         <is>
-          <t>2020年10月12日</t>
+          <t>2020年10月20日</t>
         </is>
       </c>
       <c r="BH1" t="inlineStr">
         <is>
-          <t>2020年10月15日</t>
+          <t>2020年10月23日</t>
         </is>
       </c>
       <c r="BI1" t="inlineStr">
         <is>
-          <t>2020年10月20日</t>
+          <t>2020年10月28日</t>
         </is>
       </c>
       <c r="BJ1" t="inlineStr">
         <is>
-          <t>2020年10月23日</t>
+          <t>2020年11月02日</t>
         </is>
       </c>
       <c r="BK1" t="inlineStr">
         <is>
-          <t>2020年10月28日</t>
+          <t>2020年11月05日</t>
         </is>
       </c>
       <c r="BL1" t="inlineStr">
         <is>
-          <t>2020年11月02日</t>
+          <t>2020年11月10日</t>
         </is>
       </c>
       <c r="BM1" t="inlineStr">
         <is>
-          <t>2020年11月05日</t>
+          <t>2020年11月13日</t>
         </is>
       </c>
       <c r="BN1" t="inlineStr">
         <is>
-          <t>2020年11月10日</t>
+          <t>2020年11月18日</t>
         </is>
       </c>
       <c r="BO1" t="inlineStr">
         <is>
-          <t>2020年11月13日</t>
+          <t>2020年11月23日</t>
         </is>
       </c>
       <c r="BP1" t="inlineStr">
         <is>
-          <t>2020年11月18日</t>
+          <t>2020年11月26日</t>
         </is>
       </c>
       <c r="BQ1" t="inlineStr">
         <is>
-          <t>2020年11月23日</t>
+          <t>2020年12月01日</t>
         </is>
       </c>
       <c r="BR1" t="inlineStr">
         <is>
-          <t>2020年11月26日</t>
+          <t>2020年12月04日</t>
         </is>
       </c>
       <c r="BS1" t="inlineStr">
         <is>
-          <t>2020年12月01日</t>
+          <t>2020年12月09日</t>
         </is>
       </c>
       <c r="BT1" t="inlineStr">
         <is>
-          <t>2020年12月04日</t>
+          <t>2020年12月14日</t>
         </is>
       </c>
       <c r="BU1" t="inlineStr">
         <is>
-          <t>2020年12月09日</t>
+          <t>2020年12月17日</t>
         </is>
       </c>
       <c r="BV1" t="inlineStr">
         <is>
-          <t>2020年12月14日</t>
+          <t>2020年12月22日</t>
         </is>
       </c>
       <c r="BW1" t="inlineStr">
         <is>
-          <t>2020年12月17日</t>
+          <t>2020年12月30日</t>
         </is>
       </c>
       <c r="BX1" t="inlineStr">
         <is>
-          <t>2020年12月22日</t>
+          <t>2021年01月06日</t>
         </is>
       </c>
       <c r="BY1" t="inlineStr">
         <is>
-          <t>2020年12月30日</t>
+          <t>2021年01月11日</t>
         </is>
       </c>
       <c r="BZ1" t="inlineStr">
         <is>
-          <t>2021年01月06日</t>
+          <t>2021年01月14日</t>
         </is>
       </c>
       <c r="CA1" t="inlineStr">
         <is>
-          <t>2021年01月11日</t>
+          <t>2021年01月19日</t>
         </is>
       </c>
       <c r="CB1" t="inlineStr">
         <is>
-          <t>2021年01月14日</t>
+          <t>2021年01月22日</t>
         </is>
       </c>
       <c r="CC1" t="inlineStr">
         <is>
-          <t>2021年01月19日</t>
+          <t>2021年01月27日</t>
         </is>
       </c>
       <c r="CD1" t="inlineStr">
         <is>
-          <t>2021年01月22日</t>
+          <t>2021年02月01日</t>
         </is>
       </c>
       <c r="CE1" t="inlineStr">
         <is>
-          <t>2021年01月27日</t>
+          <t>2021年02月04日</t>
         </is>
       </c>
       <c r="CF1" t="inlineStr">
         <is>
-          <t>2021年02月01日</t>
+          <t>2021年02月09日</t>
         </is>
       </c>
       <c r="CG1" t="inlineStr">
         <is>
-          <t>2021年02月04日</t>
+          <t>2021年02月12日</t>
         </is>
       </c>
       <c r="CH1" t="inlineStr">
         <is>
-          <t>2021年02月09日</t>
+          <t>2021年02月17日</t>
         </is>
       </c>
       <c r="CI1" t="inlineStr">
         <is>
-          <t>2021年02月12日</t>
+          <t>2021年02月22日</t>
         </is>
       </c>
       <c r="CJ1" t="inlineStr">
         <is>
-          <t>2021年02月17日</t>
+          <t>2021年02月25日</t>
         </is>
       </c>
       <c r="CK1" t="inlineStr">
         <is>
-          <t>2021年02月22日</t>
+          <t>2021年03月02日</t>
         </is>
       </c>
       <c r="CL1" t="inlineStr">
         <is>
-          <t>2021年02月25日</t>
+          <t>2021年03月05日</t>
         </is>
       </c>
       <c r="CM1" t="inlineStr">
         <is>
-          <t>2021年03月02日</t>
+          <t>2021年03月10日</t>
         </is>
       </c>
       <c r="CN1" t="inlineStr">
         <is>
-          <t>2021年03月05日</t>
+          <t>2021年03月15日</t>
         </is>
       </c>
       <c r="CO1" t="inlineStr">
         <is>
-          <t>2021年03月10日</t>
+          <t>2021年03月18日</t>
         </is>
       </c>
       <c r="CP1" t="inlineStr">
         <is>
-          <t>2021年03月15日</t>
+          <t>2021年03月23日</t>
         </is>
       </c>
       <c r="CQ1" t="inlineStr">
         <is>
-          <t>2021年03月18日</t>
+          <t>2021年03月26日</t>
         </is>
       </c>
       <c r="CR1" t="inlineStr">
         <is>
-          <t>2021年03月23日</t>
+          <t>2021年03月31日</t>
         </is>
       </c>
       <c r="CS1" t="inlineStr">
         <is>
-          <t>2021年03月26日</t>
+          <t>2021年04月07日</t>
         </is>
       </c>
       <c r="CT1" t="inlineStr">
         <is>
-          <t>2021年03月31日</t>
+          <t>2021年04月12日</t>
         </is>
       </c>
       <c r="CU1" t="inlineStr">
         <is>
-          <t>2021年04月07日</t>
+          <t>2021年04月15日</t>
         </is>
       </c>
       <c r="CV1" t="inlineStr">
         <is>
-          <t>2021年04月12日</t>
+          <t>2021年04月20日</t>
         </is>
       </c>
       <c r="CW1" t="inlineStr">
         <is>
-          <t>2021年04月15日</t>
+          <t>2021年04月23日</t>
         </is>
       </c>
       <c r="CX1" t="inlineStr">
         <is>
-          <t>2021年04月20日</t>
+          <t>2021年04月28日</t>
         </is>
       </c>
       <c r="CY1" t="inlineStr">
         <is>
-          <t>2021年04月23日</t>
+          <t>2021年05月04日</t>
         </is>
       </c>
       <c r="CZ1" t="inlineStr">
         <is>
-          <t>2021年04月28日</t>
+          <t>2021年05月07日</t>
         </is>
       </c>
       <c r="DA1" t="inlineStr">
         <is>
-          <t>2021年05月04日</t>
+          <t>2021年05月12日</t>
         </is>
       </c>
       <c r="DB1" t="inlineStr">
         <is>
-          <t>2021年05月07日</t>
+          <t>2021年05月17日</t>
         </is>
       </c>
       <c r="DC1" t="inlineStr">
         <is>
-          <t>2021年05月12日</t>
+          <t>2021年05月20日</t>
         </is>
       </c>
       <c r="DD1" t="inlineStr">
         <is>
-          <t>2021年05月17日</t>
+          <t>2021年05月25日</t>
         </is>
       </c>
       <c r="DE1" t="inlineStr">
         <is>
-          <t>2021年05月20日</t>
+          <t>2021年05月28日</t>
         </is>
       </c>
       <c r="DF1" t="inlineStr">
         <is>
-          <t>2021年05月25日</t>
+          <t>2021年06月03日</t>
         </is>
       </c>
       <c r="DG1" t="inlineStr">
         <is>
-          <t>2021年05月28日</t>
+          <t>2021年06月08日</t>
         </is>
       </c>
       <c r="DH1" t="inlineStr">
         <is>
-          <t>2021年06月03日</t>
+          <t>2021年06月11日</t>
         </is>
       </c>
       <c r="DI1" t="inlineStr">
         <is>
-          <t>2021年06月08日</t>
+          <t>2021年06月16日</t>
         </is>
       </c>
       <c r="DJ1" t="inlineStr">
         <is>
-          <t>2021年06月11日</t>
+          <t>2021年06月21日</t>
         </is>
       </c>
       <c r="DK1" t="inlineStr">
         <is>
-          <t>2021年06月16日</t>
+          <t>2021年06月24日</t>
         </is>
       </c>
       <c r="DL1" t="inlineStr">
         <is>
-          <t>2021年06月21日</t>
+          <t>2021年06月29日</t>
         </is>
       </c>
       <c r="DM1" t="inlineStr">
         <is>
-          <t>2021年06月24日</t>
+          <t>2021年07月02日</t>
         </is>
       </c>
       <c r="DN1" t="inlineStr">
         <is>
-          <t>2021年06月29日</t>
+          <t>2021年07月07日</t>
         </is>
       </c>
       <c r="DO1" t="inlineStr">
         <is>
-          <t>2021年07月02日</t>
+          <t>2021年07月12日</t>
         </is>
       </c>
       <c r="DP1" t="inlineStr">
         <is>
-          <t>2021年07月07日</t>
+          <t>2021年07月15日</t>
         </is>
       </c>
       <c r="DQ1" t="inlineStr">
         <is>
-          <t>2021年07月12日</t>
+          <t>2021年07月20日</t>
         </is>
       </c>
       <c r="DR1" t="inlineStr">
         <is>
-          <t>2021年07月15日</t>
+          <t>2021年07月23日</t>
         </is>
       </c>
       <c r="DS1" t="inlineStr">
         <is>
-          <t>2021年07月20日</t>
+          <t>2021年07月28日</t>
         </is>
       </c>
       <c r="DT1" t="inlineStr">
         <is>
-          <t>2021年07月23日</t>
+          <t>2021年08月02日</t>
         </is>
       </c>
       <c r="DU1" t="inlineStr">
         <is>
-          <t>2021年07月28日</t>
+          <t>2021年08月05日</t>
         </is>
       </c>
       <c r="DV1" t="inlineStr">
         <is>
-          <t>2021年08月02日</t>
+          <t>2021年08月10日</t>
         </is>
       </c>
       <c r="DW1" t="inlineStr">
         <is>
-          <t>2021年08月05日</t>
+          <t>2021年08月13日</t>
         </is>
       </c>
       <c r="DX1" t="inlineStr">
         <is>
-          <t>2021年08月10日</t>
+          <t>2021年08月18日</t>
         </is>
       </c>
       <c r="DY1" t="inlineStr">
         <is>
-          <t>2021年08月13日</t>
+          <t>2021年08月23日</t>
         </is>
       </c>
       <c r="DZ1" t="inlineStr">
         <is>
-          <t>2021年08月18日</t>
+          <t>2021年08月26日</t>
         </is>
       </c>
       <c r="EA1" t="inlineStr">
         <is>
-          <t>2021年08月23日</t>
+          <t>2021年09月01日</t>
         </is>
       </c>
       <c r="EB1" t="inlineStr">
         <is>
-          <t>2021年08月26日</t>
+          <t>2021年09月06日</t>
         </is>
       </c>
       <c r="EC1" t="inlineStr">
         <is>
-          <t>2021年09月01日</t>
+          <t>2021年09月09日</t>
         </is>
       </c>
       <c r="ED1" t="inlineStr">
         <is>
-          <t>2021年09月06日</t>
+          <t>2021年09月14日</t>
         </is>
       </c>
       <c r="EE1" t="inlineStr">
         <is>
-          <t>2021年09月09日</t>
+          <t>2021年09月17日</t>
         </is>
       </c>
       <c r="EF1" t="inlineStr">
         <is>
-          <t>2021年09月14日</t>
+          <t>2021年09月22日</t>
         </is>
       </c>
       <c r="EG1" t="inlineStr">
         <is>
-          <t>2021年09月17日</t>
+          <t>2021年09月27日</t>
         </is>
       </c>
       <c r="EH1" t="inlineStr">
         <is>
-          <t>2021年09月22日</t>
+          <t>2021年09月30日</t>
         </is>
       </c>
       <c r="EI1" t="inlineStr">
         <is>
-          <t>2021年09月27日</t>
+          <t>2021年10月05日</t>
         </is>
       </c>
       <c r="EJ1" t="inlineStr">
         <is>
-          <t>2021年09月30日</t>
+          <t>2021年10月08日</t>
         </is>
       </c>
       <c r="EK1" t="inlineStr">
         <is>
-          <t>2021年10月05日</t>
+          <t>2021年10月13日</t>
         </is>
       </c>
       <c r="EL1" t="inlineStr">
         <is>
-          <t>2021年10月08日</t>
+          <t>2021年10月18日</t>
         </is>
       </c>
       <c r="EM1" t="inlineStr">
         <is>
-          <t>2021年10月13日</t>
+          <t>2021年10月21日</t>
         </is>
       </c>
       <c r="EN1" t="inlineStr">
         <is>
-          <t>2021年10月18日</t>
+          <t>2021年10月26日</t>
         </is>
       </c>
       <c r="EO1" t="inlineStr">
         <is>
-          <t>2021年10月21日</t>
+          <t>2021年10月29日</t>
         </is>
       </c>
       <c r="EP1" t="inlineStr">
         <is>
-          <t>2021年10月26日</t>
+          <t>2021年11月03日</t>
         </is>
       </c>
       <c r="EQ1" t="inlineStr">
         <is>
-          <t>2021年10月29日</t>
+          <t>2021年11月08日</t>
         </is>
       </c>
       <c r="ER1" t="inlineStr">
         <is>
-          <t>2021年11月03日</t>
+          <t>2021年11月11日</t>
         </is>
       </c>
       <c r="ES1" t="inlineStr">
         <is>
-          <t>2021年11月08日</t>
+          <t>2021年11月16日</t>
         </is>
       </c>
       <c r="ET1" t="inlineStr">
         <is>
-          <t>2021年11月11日</t>
+          <t>2021年11月19日</t>
         </is>
       </c>
       <c r="EU1" t="inlineStr">
         <is>
-          <t>2021年11月16日</t>
+          <t>2021年11月24日</t>
         </is>
       </c>
       <c r="EV1" t="inlineStr">
         <is>
-          <t>2021年11月19日</t>
+          <t>2021年11月29日</t>
         </is>
       </c>
       <c r="EW1" t="inlineStr">
         <is>
-          <t>2021年11月24日</t>
+          <t>2021年12月02日</t>
         </is>
       </c>
       <c r="EX1" t="inlineStr">
         <is>
-          <t>2021年11月29日</t>
+          <t>2021年12月07日</t>
         </is>
       </c>
       <c r="EY1" t="inlineStr">
         <is>
-          <t>2021年12月02日</t>
+          <t>2021年12月10日</t>
         </is>
       </c>
       <c r="EZ1" t="inlineStr">
         <is>
-          <t>2021年12月07日</t>
+          <t>2021年12月15日</t>
         </is>
       </c>
       <c r="FA1" t="inlineStr">
         <is>
-          <t>2021年12月10日</t>
+          <t>2021年12月20日</t>
         </is>
       </c>
       <c r="FB1" t="inlineStr">
         <is>
-          <t>2021年12月15日</t>
+          <t>2021年12月23日</t>
         </is>
       </c>
       <c r="FC1" t="inlineStr">
         <is>
-          <t>2021年12月20日</t>
+          <t>2022年01月04日</t>
         </is>
       </c>
       <c r="FD1" t="inlineStr">
         <is>
-          <t>2021年12月23日</t>
+          <t>2022年01月07日</t>
         </is>
       </c>
       <c r="FE1" t="inlineStr">
         <is>
-          <t>2022年01月04日</t>
+          <t>2022年01月12日</t>
         </is>
       </c>
       <c r="FF1" t="inlineStr">
         <is>
-          <t>2022年01月07日</t>
+          <t>2022年01月17日</t>
         </is>
       </c>
       <c r="FG1" t="inlineStr">
         <is>
-          <t>2022年01月12日</t>
+          <t>2022年01月20日</t>
         </is>
       </c>
       <c r="FH1" t="inlineStr">
         <is>
-          <t>2022年01月17日</t>
+          <t>2022年01月25日</t>
         </is>
       </c>
       <c r="FI1" t="inlineStr">
         <is>
-          <t>2022年01月20日</t>
+          <t>2022年01月28日</t>
         </is>
       </c>
       <c r="FJ1" t="inlineStr">
         <is>
-          <t>2022年01月25日</t>
+          <t>2022年02月02日</t>
         </is>
       </c>
       <c r="FK1" t="inlineStr">
         <is>
-          <t>2022年01月28日</t>
+          <t>2022年02月07日</t>
         </is>
       </c>
       <c r="FL1" t="inlineStr">
         <is>
-          <t>2022年02月02日</t>
+          <t>2022年02月10日</t>
         </is>
       </c>
       <c r="FM1" t="inlineStr">
         <is>
-          <t>2022年02月07日</t>
+          <t>2022年02月15日</t>
         </is>
       </c>
       <c r="FN1" t="inlineStr">
         <is>
-          <t>2022年02月10日</t>
+          <t>2022年02月18日</t>
         </is>
       </c>
       <c r="FO1" t="inlineStr">
         <is>
-          <t>2022年02月15日</t>
+          <t>2022年02月23日</t>
         </is>
       </c>
       <c r="FP1" t="inlineStr">
         <is>
-          <t>2022年02月18日</t>
+          <t>2022年02月28日</t>
         </is>
       </c>
       <c r="FQ1" t="inlineStr">
         <is>
-          <t>2022年02月23日</t>
+          <t>2022年03月03日</t>
         </is>
       </c>
       <c r="FR1" t="inlineStr">
         <is>
-          <t>2022年02月28日</t>
+          <t>2022年03月08日</t>
         </is>
       </c>
       <c r="FS1" t="inlineStr">
         <is>
-          <t>2022年03月03日</t>
+          <t>2022年03月11日</t>
         </is>
       </c>
       <c r="FT1" t="inlineStr">
         <is>
-          <t>2022年03月08日</t>
+          <t>2022年03月16日</t>
         </is>
       </c>
       <c r="FU1" t="inlineStr">
         <is>
-          <t>2022年03月11日</t>
+          <t>2022年03月21日</t>
         </is>
       </c>
       <c r="FV1" t="inlineStr">
         <is>
-          <t>2022年03月16日</t>
+          <t>2022年03月24日</t>
         </is>
       </c>
       <c r="FW1" t="inlineStr">
         <is>
-          <t>2022年03月21日</t>
+          <t>2022年03月29日</t>
         </is>
       </c>
       <c r="FX1" t="inlineStr">
         <is>
-          <t>2022年03月24日</t>
+          <t>2022年04月01日</t>
         </is>
       </c>
       <c r="FY1" t="inlineStr">
         <is>
-          <t>2022年03月29日</t>
+          <t>2022年04月06日</t>
         </is>
       </c>
       <c r="FZ1" t="inlineStr">
         <is>
-          <t>2022年04月01日</t>
+          <t>2022年04月11日</t>
         </is>
       </c>
       <c r="GA1" t="inlineStr">
         <is>
-          <t>2022年04月06日</t>
+          <t>2022年04月14日</t>
         </is>
       </c>
       <c r="GB1" t="inlineStr">
         <is>
-          <t>2022年04月11日</t>
+          <t>2022年04月21日</t>
         </is>
       </c>
       <c r="GC1" t="inlineStr">
         <is>
-          <t>2022年04月14日</t>
+          <t>2022年04月26日</t>
         </is>
       </c>
       <c r="GD1" t="inlineStr">
         <is>
-          <t>2022年04月21日</t>
+          <t>2022年04月29日</t>
         </is>
       </c>
       <c r="GE1" t="inlineStr">
         <is>
-          <t>2022年04月26日</t>
+          <t>2022年05月05日</t>
         </is>
       </c>
       <c r="GF1" t="inlineStr">
         <is>
-          <t>2022年04月29日</t>
+          <t>2022年05月10日</t>
         </is>
       </c>
       <c r="GG1" t="inlineStr">
         <is>
-          <t>2022年05月05日</t>
+          <t>2022年05月13日</t>
         </is>
       </c>
       <c r="GH1" t="inlineStr">
         <is>
-          <t>2022年05月10日</t>
+          <t>2022年05月18日</t>
         </is>
       </c>
       <c r="GI1" t="inlineStr">
         <is>
-          <t>2022年05月13日</t>
+          <t>2022年05月23日</t>
         </is>
       </c>
       <c r="GJ1" t="inlineStr">
         <is>
-          <t>2022年05月18日</t>
+          <t>2022年05月26日</t>
         </is>
       </c>
       <c r="GK1" t="inlineStr">
         <is>
-          <t>2022年05月23日</t>
+          <t>2022年05月31日</t>
         </is>
       </c>
       <c r="GL1" t="inlineStr">
         <is>
-          <t>2022年05月26日</t>
+          <t>2022年06月07日</t>
         </is>
       </c>
       <c r="GM1" t="inlineStr">
         <is>
-          <t>2022年05月31日</t>
+          <t>2022年06月10日</t>
         </is>
       </c>
       <c r="GN1" t="inlineStr">
         <is>
-          <t>2022年06月07日</t>
+          <t>2022年06月15日</t>
         </is>
       </c>
       <c r="GO1" t="inlineStr">
         <is>
-          <t>2022年06月10日</t>
+          <t>2022年06月20日</t>
         </is>
       </c>
       <c r="GP1" t="inlineStr">
         <is>
-          <t>2022年06月15日</t>
+          <t>2022年06月23日</t>
         </is>
       </c>
       <c r="GQ1" t="inlineStr">
         <is>
-          <t>2022年06月20日</t>
+          <t>2022年06月28日</t>
         </is>
       </c>
       <c r="GR1" t="inlineStr">
         <is>
-          <t>2022年06月23日</t>
+          <t>2022年07月01日</t>
         </is>
       </c>
       <c r="GS1" t="inlineStr">
         <is>
-          <t>2022年06月28日</t>
+          <t>2022年07月06日</t>
         </is>
       </c>
       <c r="GT1" t="inlineStr">
         <is>
-          <t>2022年07月01日</t>
+          <t>2022年07月11日</t>
         </is>
       </c>
       <c r="GU1" t="inlineStr">
         <is>
-          <t>2022年07月06日</t>
+          <t>2022年07月14日</t>
         </is>
       </c>
       <c r="GV1" t="inlineStr">
         <is>
-          <t>2022年07月11日</t>
+          <t>2022年07月19日</t>
         </is>
       </c>
       <c r="GW1" t="inlineStr">
         <is>
-          <t>2022年07月14日</t>
+          <t>2022年07月22日</t>
         </is>
       </c>
       <c r="GX1" t="inlineStr">
         <is>
-          <t>2022年07月19日</t>
+          <t>2022年07月27日</t>
         </is>
       </c>
       <c r="GY1" t="inlineStr">
         <is>
-          <t>2022年07月22日</t>
+          <t>2022年08月01日</t>
         </is>
       </c>
       <c r="GZ1" t="inlineStr">
         <is>
-          <t>2022年07月27日</t>
+          <t>2022年08月04日</t>
         </is>
       </c>
       <c r="HA1" t="inlineStr">
         <is>
-          <t>2022年08月01日</t>
+          <t>2022年08月09日</t>
         </is>
       </c>
       <c r="HB1" t="inlineStr">
         <is>
-          <t>2022年08月04日</t>
+          <t>2022年08月12日</t>
         </is>
       </c>
       <c r="HC1" t="inlineStr">
         <is>
-          <t>2022年08月09日</t>
+          <t>2022年08月17日</t>
         </is>
       </c>
       <c r="HD1" t="inlineStr">
         <is>
-          <t>2022年08月12日</t>
+          <t>2022年08月22日</t>
         </is>
       </c>
       <c r="HE1" t="inlineStr">
         <is>
-          <t>2022年08月17日</t>
+          <t>2022年08月25日</t>
         </is>
       </c>
       <c r="HF1" t="inlineStr">
         <is>
-          <t>2022年08月22日</t>
+          <t>2022年08月31日</t>
         </is>
       </c>
       <c r="HG1" t="inlineStr">
         <is>
-          <t>2022年08月25日</t>
+          <t>2022年09月05日</t>
         </is>
       </c>
       <c r="HH1" t="inlineStr">
         <is>
-          <t>2022年08月31日</t>
+          <t>2022年09月08日</t>
         </is>
       </c>
       <c r="HI1" t="inlineStr">
         <is>
-          <t>2022年09月05日</t>
+          <t>2022年09月13日</t>
         </is>
       </c>
       <c r="HJ1" t="inlineStr">
         <is>
-          <t>2022年09月08日</t>
+          <t>2022年09月16日</t>
         </is>
       </c>
       <c r="HK1" t="inlineStr">
         <is>
-          <t>2022年09月13日</t>
+          <t>2022年09月22日</t>
         </is>
       </c>
       <c r="HL1" t="inlineStr">
         <is>
-          <t>2022年09月16日</t>
+          <t>2022年09月27日</t>
         </is>
       </c>
       <c r="HM1" t="inlineStr">
         <is>
-          <t>2022年09月22日</t>
+          <t>2022年09月30日</t>
         </is>
       </c>
       <c r="HN1" t="inlineStr">
         <is>
-          <t>2022年09月27日</t>
+          <t>2022年10月05日</t>
         </is>
       </c>
       <c r="HO1" t="inlineStr">
         <is>
-          <t>2022年09月30日</t>
+          <t>2022年10月10日</t>
         </is>
       </c>
       <c r="HP1" t="inlineStr">
         <is>
-          <t>2022年10月05日</t>
+          <t>2022年10月13日</t>
         </is>
       </c>
       <c r="HQ1" t="inlineStr">
         <is>
-          <t>2022年10月10日</t>
+          <t>2022年10月18日</t>
         </is>
       </c>
       <c r="HR1" t="inlineStr">
         <is>
-          <t>2022年10月13日</t>
+          <t>2022年10月21日</t>
         </is>
       </c>
       <c r="HS1" t="inlineStr">
         <is>
-          <t>2022年10月18日</t>
+          <t>2022年10月26日</t>
         </is>
       </c>
       <c r="HT1" t="inlineStr">
         <is>
-          <t>2022年10月21日</t>
+          <t>2022年10月31日</t>
         </is>
       </c>
       <c r="HU1" t="inlineStr">
         <is>
-          <t>2022年10月26日</t>
+          <t>2022年11月03日</t>
         </is>
       </c>
       <c r="HV1" t="inlineStr">
         <is>
-          <t>2022年10月31日</t>
+          <t>2022年11月08日</t>
         </is>
       </c>
       <c r="HW1" t="inlineStr">
         <is>
-          <t>2022年11月03日</t>
+          <t>2022年11月11日</t>
         </is>
       </c>
       <c r="HX1" t="inlineStr">
         <is>
-          <t>2022年11月08日</t>
+          <t>2022年11月16日</t>
         </is>
       </c>
       <c r="HY1" t="inlineStr">
         <is>
-          <t>2022年11月11日</t>
+          <t>2022年11月21日</t>
         </is>
       </c>
       <c r="HZ1" t="inlineStr">
         <is>
-          <t>2022年11月16日</t>
+          <t>2022年11月24日</t>
         </is>
       </c>
       <c r="IA1" t="inlineStr">
         <is>
-          <t>2022年11月21日</t>
+          <t>2022年11月29日</t>
         </is>
       </c>
       <c r="IB1" t="inlineStr">
         <is>
-          <t>2022年11月24日</t>
+          <t>2022年12月02日</t>
         </is>
       </c>
       <c r="IC1" t="inlineStr">
         <is>
-          <t>2022年11月29日</t>
+          <t>2022年12月07日</t>
         </is>
       </c>
       <c r="ID1" t="inlineStr">
         <is>
-          <t>2022年12月02日</t>
+          <t>2022年12月12日</t>
         </is>
       </c>
       <c r="IE1" t="inlineStr">
         <is>
-          <t>2022年12月07日</t>
+          <t>2022年12月15日</t>
         </is>
       </c>
       <c r="IF1" t="inlineStr">
         <is>
-          <t>2022年12月12日</t>
+          <t>2022年12月20日</t>
         </is>
       </c>
       <c r="IG1" t="inlineStr">
         <is>
-          <t>2022年12月15日</t>
+          <t>2022年12月28日</t>
         </is>
       </c>
       <c r="IH1" t="inlineStr">
         <is>
-          <t>2022年12月20日</t>
+          <t>2023年01月04日</t>
         </is>
       </c>
       <c r="II1" t="inlineStr">
         <is>
-          <t>2022年12月28日</t>
+          <t>2023年01月09日</t>
         </is>
       </c>
       <c r="IJ1" t="inlineStr">
         <is>
-          <t>2023年01月04日</t>
+          <t>2023年01月12日</t>
         </is>
       </c>
       <c r="IK1" t="inlineStr">
         <is>
-          <t>2023年01月09日</t>
+          <t>2023年01月17日</t>
         </is>
       </c>
       <c r="IL1" t="inlineStr">
         <is>
-          <t>2023年01月12日</t>
+          <t>2023年01月20日</t>
         </is>
       </c>
       <c r="IM1" t="inlineStr">
         <is>
-          <t>2023年01月17日</t>
+          <t>2023年01月25日</t>
         </is>
       </c>
       <c r="IN1" t="inlineStr">
         <is>
-          <t>2023年01月20日</t>
+          <t>2023年01月30日</t>
         </is>
       </c>
       <c r="IO1" t="inlineStr">
         <is>
-          <t>2023年01月25日</t>
+          <t>2023年02月02日</t>
         </is>
       </c>
       <c r="IP1" t="inlineStr">
         <is>
-          <t>2023年01月30日</t>
+          <t>2023年02月07日</t>
         </is>
       </c>
       <c r="IQ1" t="inlineStr">
         <is>
-          <t>2023年02月02日</t>
+          <t>2023年02月10日</t>
         </is>
       </c>
       <c r="IR1" t="inlineStr">
         <is>
-          <t>2023年02月07日</t>
+          <t>2023年02月15日</t>
         </is>
       </c>
       <c r="IS1" t="inlineStr">
         <is>
-          <t>2023年02月10日</t>
+          <t>2023年02月20日</t>
         </is>
       </c>
       <c r="IT1" t="inlineStr">
         <is>
-          <t>2023年02月15日</t>
+          <t>2023年02月23日</t>
         </is>
       </c>
       <c r="IU1" t="inlineStr">
         <is>
-          <t>2023年02月20日</t>
+          <t>2023年02月28日</t>
         </is>
       </c>
       <c r="IV1" t="inlineStr">
         <is>
-          <t>2023年02月23日</t>
+          <t>2023年03月03日</t>
         </is>
       </c>
       <c r="IW1" t="inlineStr">
         <is>
-          <t>2023年02月28日</t>
+          <t>2023年03月08日</t>
         </is>
       </c>
       <c r="IX1" t="inlineStr">
         <is>
-          <t>2023年03月03日</t>
+          <t>2023年03月13日</t>
         </is>
       </c>
       <c r="IY1" t="inlineStr">
         <is>
-          <t>2023年03月08日</t>
+          <t>2023年03月16日</t>
         </is>
       </c>
       <c r="IZ1" t="inlineStr">
         <is>
-          <t>2023年03月13日</t>
+          <t>2023年03月21日</t>
         </is>
       </c>
       <c r="JA1" t="inlineStr">
         <is>
-          <t>2023年03月16日</t>
+          <t>2023年03月24日</t>
         </is>
       </c>
       <c r="JB1" t="inlineStr">
         <is>
-          <t>2023年03月21日</t>
+          <t>2023年03月29日</t>
         </is>
       </c>
       <c r="JC1" t="inlineStr">
         <is>
-          <t>2023年03月24日</t>
+          <t>2023年04月03日</t>
         </is>
       </c>
       <c r="JD1" t="inlineStr">
         <is>
-          <t>2023年03月29日</t>
+          <t>2023年04月06日</t>
         </is>
       </c>
       <c r="JE1" t="inlineStr">
         <is>
-          <t>2023年04月03日</t>
+          <t>2023年04月13日</t>
         </is>
       </c>
       <c r="JF1" t="inlineStr">
         <is>
-          <t>2023年04月06日</t>
+          <t>2023年04月18日</t>
         </is>
       </c>
       <c r="JG1" t="inlineStr">
         <is>
-          <t>2023年04月13日</t>
+          <t>2023年04月21日</t>
         </is>
       </c>
       <c r="JH1" t="inlineStr">
         <is>
-          <t>2023年04月18日</t>
+          <t>2023年04月26日</t>
         </is>
       </c>
       <c r="JI1" t="inlineStr">
         <is>
-          <t>2023年04月21日</t>
+          <t>2023年05月02日</t>
         </is>
       </c>
       <c r="JJ1" t="inlineStr">
         <is>
-          <t>2023年04月26日</t>
+          <t>2023年05月05日</t>
         </is>
       </c>
       <c r="JK1" t="inlineStr">
         <is>
-          <t>2023年05月02日</t>
+          <t>2023年05月11日</t>
         </is>
       </c>
       <c r="JL1" t="inlineStr">
         <is>
-          <t>2023年05月05日</t>
+          <t>2023年05月16日</t>
         </is>
       </c>
       <c r="JM1" t="inlineStr">
         <is>
-          <t>2023年05月11日</t>
+          <t>2023年05月19日</t>
         </is>
       </c>
       <c r="JN1" t="inlineStr">
         <is>
-          <t>2023年05月16日</t>
+          <t>2023年05月24日</t>
         </is>
       </c>
       <c r="JO1" t="inlineStr">
         <is>
-          <t>2023年05月19日</t>
+          <t>2023年05月30日</t>
         </is>
       </c>
       <c r="JP1" t="inlineStr">
         <is>
-          <t>2023年05月24日</t>
+          <t>2023年06月02日</t>
         </is>
       </c>
       <c r="JQ1" t="inlineStr">
         <is>
-          <t>2023年05月30日</t>
+          <t>2023年06月07日</t>
         </is>
       </c>
       <c r="JR1" t="inlineStr">
         <is>
-          <t>2023年06月02日</t>
+          <t>2023年06月12日</t>
         </is>
       </c>
       <c r="JS1" t="inlineStr">
         <is>
-          <t>2023年06月07日</t>
+          <t>2023年06月15日</t>
         </is>
       </c>
       <c r="JT1" t="inlineStr">
         <is>
-          <t>2023年06月12日</t>
+          <t>2023年06月20日</t>
         </is>
       </c>
       <c r="JU1" t="inlineStr">
         <is>
-          <t>2023年06月15日</t>
+          <t>2023年06月23日</t>
         </is>
       </c>
       <c r="JV1" t="inlineStr">
         <is>
-          <t>2023年06月20日</t>
+          <t>2023年06月28日</t>
         </is>
       </c>
       <c r="JW1" t="inlineStr">
         <is>
-          <t>2023年06月23日</t>
+          <t>2023年07月03日</t>
         </is>
       </c>
       <c r="JX1" t="inlineStr">
         <is>
-          <t>2023年06月28日</t>
+          <t>2023年07月06日</t>
         </is>
       </c>
       <c r="JY1" t="inlineStr">
         <is>
-          <t>2023年07月03日</t>
+          <t>2023年07月11日</t>
         </is>
       </c>
       <c r="JZ1" t="inlineStr">
         <is>
-          <t>2023年07月06日</t>
+          <t>2023年07月14日</t>
         </is>
       </c>
       <c r="KA1" t="inlineStr">
         <is>
-          <t>2023年07月11日</t>
+          <t>2023年07月19日</t>
         </is>
       </c>
       <c r="KB1" t="inlineStr">
         <is>
-          <t>2023年07月14日</t>
+          <t>2023年07月24日</t>
         </is>
       </c>
       <c r="KC1" t="inlineStr">
         <is>
-          <t>2023年07月19日</t>
+          <t>2023年07月27日</t>
         </is>
       </c>
       <c r="KD1" t="inlineStr">
         <is>
-          <t>2023年07月24日</t>
+          <t>2023年08月01日</t>
         </is>
       </c>
       <c r="KE1" t="inlineStr">
         <is>
-          <t>2023年07月27日</t>
+          <t>2023年08月04日</t>
         </is>
       </c>
       <c r="KF1" t="inlineStr">
         <is>
-          <t>2023年08月01日</t>
+          <t>2023年08月09日</t>
         </is>
       </c>
       <c r="KG1" t="inlineStr">
         <is>
-          <t>2023年08月04日</t>
+          <t>2023年08月14日</t>
         </is>
       </c>
       <c r="KH1" t="inlineStr">
         <is>
-          <t>2023年08月09日</t>
+          <t>2023年08月17日</t>
         </is>
       </c>
       <c r="KI1" t="inlineStr">
         <is>
-          <t>2023年08月14日</t>
+          <t>2023年08月22日</t>
         </is>
       </c>
       <c r="KJ1" t="inlineStr">
         <is>
-          <t>2023年08月17日</t>
+          <t>2023年08月25日</t>
         </is>
       </c>
       <c r="KK1" t="inlineStr">
         <is>
-          <t>2023年08月22日</t>
+          <t>2023年08月31日</t>
         </is>
       </c>
       <c r="KL1" t="inlineStr">
         <is>
-          <t>2023年08月25日</t>
+          <t>2023年09月05日</t>
         </is>
       </c>
       <c r="KM1" t="inlineStr">
         <is>
-          <t>2023年08月31日</t>
+          <t>2023年09月08日</t>
         </is>
       </c>
       <c r="KN1" t="inlineStr">
         <is>
-          <t>2023年09月05日</t>
+          <t>2023年09月13日</t>
         </is>
       </c>
       <c r="KO1" t="inlineStr">
         <is>
-          <t>2023年09月08日</t>
+          <t>2023年09月18日</t>
         </is>
       </c>
       <c r="KP1" t="inlineStr">
         <is>
-          <t>2023年09月13日</t>
+          <t>2023年09月21日</t>
         </is>
       </c>
       <c r="KQ1" t="inlineStr">
         <is>
-          <t>2023年09月18日</t>
+          <t>2023年09月26日</t>
         </is>
       </c>
       <c r="KR1" t="inlineStr">
         <is>
-          <t>2023年09月21日</t>
+          <t>2023年09月29日</t>
         </is>
       </c>
       <c r="KS1" t="inlineStr">
         <is>
-          <t>2023年09月26日</t>
+          <t>2023年10月04日</t>
         </is>
       </c>
       <c r="KT1" t="inlineStr">
         <is>
-          <t>2023年09月29日</t>
+          <t>2023年10月09日</t>
         </is>
       </c>
       <c r="KU1" t="inlineStr">
         <is>
-          <t>2023年10月04日</t>
+          <t>2023年10月12日</t>
         </is>
       </c>
       <c r="KV1" t="inlineStr">
         <is>
-          <t>2023年10月09日</t>
+          <t>2023年10月17日</t>
         </is>
       </c>
       <c r="KW1" t="inlineStr">
         <is>
-          <t>2023年10月12日</t>
+          <t>2023年10月20日</t>
         </is>
       </c>
       <c r="KX1" t="inlineStr">
         <is>
-          <t>2023年10月17日</t>
+          <t>2023年10月25日</t>
         </is>
       </c>
       <c r="KY1" t="inlineStr">
         <is>
-          <t>2023年10月20日</t>
+          <t>2023年10月30日</t>
         </is>
       </c>
       <c r="KZ1" t="inlineStr">
         <is>
-          <t>2023年10月25日</t>
+          <t>2023年11月02日</t>
         </is>
       </c>
       <c r="LA1" t="inlineStr">
         <is>
-          <t>2023年10月30日</t>
+          <t>2023年11月07日</t>
         </is>
       </c>
       <c r="LB1" t="inlineStr">
         <is>
-          <t>2023年11月02日</t>
+          <t>2023年11月10日</t>
         </is>
       </c>
       <c r="LC1" t="inlineStr">
         <is>
-          <t>2023年11月07日</t>
+          <t>2023年11月15日</t>
         </is>
       </c>
       <c r="LD1" t="inlineStr">
         <is>
-          <t>2023年11月10日</t>
+          <t>2023年11月20日</t>
         </is>
       </c>
       <c r="LE1" t="inlineStr">
         <is>
-          <t>2023年11月15日</t>
+          <t>2023年11月23日</t>
         </is>
       </c>
       <c r="LF1" t="inlineStr">
         <is>
-          <t>2023年11月20日</t>
+          <t>2023年11月28日</t>
         </is>
       </c>
       <c r="LG1" t="inlineStr">
         <is>
-          <t>2023年11月23日</t>
+          <t>2023年12月01日</t>
         </is>
       </c>
       <c r="LH1" t="inlineStr">
         <is>
-          <t>2023年11月28日</t>
+          <t>2023年12月06日</t>
         </is>
       </c>
       <c r="LI1" t="inlineStr">
         <is>
-          <t>2023年12月01日</t>
+          <t>2023年12月11日</t>
         </is>
       </c>
       <c r="LJ1" t="inlineStr">
         <is>
-          <t>2023年12月06日</t>
+          <t>2023年12月14日</t>
         </is>
       </c>
       <c r="LK1" t="inlineStr">
         <is>
-          <t>2023年12月11日</t>
+          <t>2023年12月19日</t>
         </is>
       </c>
       <c r="LL1" t="inlineStr">
         <is>
-          <t>2023年12月14日</t>
+          <t>2023年12月27日</t>
         </is>
       </c>
       <c r="LM1" t="inlineStr">
         <is>
-          <t>2023年12月19日</t>
+          <t>2024年01月03日</t>
         </is>
       </c>
       <c r="LN1" t="inlineStr">
         <is>
-          <t>2023年12月27日</t>
+          <t>2024年01月08日</t>
         </is>
       </c>
       <c r="LO1" t="inlineStr">
         <is>
-          <t>2024年01月03日</t>
+          <t>2024年01月11日</t>
         </is>
       </c>
       <c r="LP1" t="inlineStr">
         <is>
-          <t>2024年01月08日</t>
+          <t>2024年01月16日</t>
         </is>
       </c>
       <c r="LQ1" t="inlineStr">
         <is>
-          <t>2024年01月11日</t>
+          <t>2024年01月19日</t>
         </is>
       </c>
       <c r="LR1" t="inlineStr">
         <is>
-          <t>2024年01月16日</t>
+          <t>2024年01月24日</t>
         </is>
       </c>
       <c r="LS1" t="inlineStr">
         <is>
-          <t>2024年01月19日</t>
+          <t>2024年01月29日</t>
         </is>
       </c>
       <c r="LT1" t="inlineStr">
         <is>
-          <t>2024年01月24日</t>
+          <t>2024年02月01日</t>
         </is>
       </c>
       <c r="LU1" t="inlineStr">
         <is>
-          <t>2024年01月29日</t>
+          <t>2024年02月06日</t>
         </is>
       </c>
       <c r="LV1" t="inlineStr">
         <is>
-          <t>2024年02月01日</t>
+          <t>2024年02月09日</t>
         </is>
       </c>
       <c r="LW1" t="inlineStr">
         <is>
-          <t>2024年02月06日</t>
+          <t>2024年02月14日</t>
         </is>
       </c>
       <c r="LX1" t="inlineStr">
         <is>
-          <t>2024年02月09日</t>
+          <t>2024年02月19日</t>
         </is>
       </c>
       <c r="LY1" t="inlineStr">
         <is>
-          <t>2024年02月14日</t>
+          <t>2024年02月22日</t>
         </is>
       </c>
       <c r="LZ1" t="inlineStr">
         <is>
-          <t>2024年02月19日</t>
+          <t>2024年02月27日</t>
         </is>
       </c>
       <c r="MA1" t="inlineStr">
         <is>
-          <t>2024年02月22日</t>
+          <t>2024年03月01日</t>
         </is>
       </c>
       <c r="MB1" t="inlineStr">
         <is>
-          <t>2024年02月27日</t>
+          <t>2024年03月06日</t>
         </is>
       </c>
       <c r="MC1" t="inlineStr">
         <is>
-          <t>2024年03月01日</t>
+          <t>2024年03月11日</t>
         </is>
       </c>
       <c r="MD1" t="inlineStr">
         <is>
-          <t>2024年03月06日</t>
+          <t>2024年03月14日</t>
         </is>
       </c>
       <c r="ME1" t="inlineStr">
         <is>
-          <t>2024年03月11日</t>
+          <t>2024年03月19日</t>
         </is>
       </c>
       <c r="MF1" t="inlineStr">
         <is>
-          <t>2024年03月14日</t>
+          <t>2024年03月22日</t>
         </is>
       </c>
       <c r="MG1" t="inlineStr">
         <is>
-          <t>2024年03月19日</t>
+          <t>2024年03月27日</t>
         </is>
       </c>
       <c r="MH1" t="inlineStr">
         <is>
-          <t>2024年03月22日</t>
+          <t>2024年04月03日</t>
         </is>
       </c>
       <c r="MI1" t="inlineStr">
         <is>
-          <t>2024年03月27日</t>
+          <t>2024年04月08日</t>
         </is>
       </c>
       <c r="MJ1" t="inlineStr">
         <is>
-          <t>2024年04月03日</t>
+          <t>2024年04月11日</t>
         </is>
       </c>
       <c r="MK1" t="inlineStr">
         <is>
-          <t>2024年04月08日</t>
+          <t>2024年04月16日</t>
         </is>
       </c>
       <c r="ML1" t="inlineStr">
         <is>
-          <t>2024年04月11日</t>
+          <t>2024年04月19日</t>
         </is>
       </c>
       <c r="MM1" t="inlineStr">
         <is>
-          <t>2024年04月16日</t>
+          <t>2024年04月24日</t>
         </is>
       </c>
       <c r="MN1" t="inlineStr">
         <is>
-          <t>2024年04月19日</t>
+          <t>2024年04月29日</t>
         </is>
       </c>
       <c r="MO1" t="inlineStr">
         <is>
-          <t>2024年04月24日</t>
+          <t>2024年05月02日</t>
         </is>
       </c>
       <c r="MP1" t="inlineStr">
         <is>
-          <t>2024年04月29日</t>
+          <t>2024年05月08日</t>
         </is>
       </c>
       <c r="MQ1" t="inlineStr">
         <is>
-          <t>2024年05月02日</t>
+          <t>2024年05月13日</t>
         </is>
       </c>
       <c r="MR1" t="inlineStr">
         <is>
-          <t>2024年05月08日</t>
+          <t>2024年05月16日</t>
         </is>
       </c>
       <c r="MS1" t="inlineStr">
         <is>
-          <t>2024年05月13日</t>
+          <t>2024年05月21日</t>
         </is>
       </c>
       <c r="MT1" t="inlineStr">
         <is>
-          <t>2024年05月16日</t>
+          <t>2024年05月24日</t>
         </is>
       </c>
       <c r="MU1" t="inlineStr">
         <is>
-          <t>2024年05月21日</t>
+          <t>2024年05月30日</t>
         </is>
       </c>
       <c r="MV1" t="inlineStr">
         <is>
-          <t>2024年05月24日</t>
+          <t>2024年06月04日</t>
         </is>
       </c>
       <c r="MW1" t="inlineStr">
         <is>
-          <t>2024年05月30日</t>
+          <t>2024年06月07日</t>
         </is>
       </c>
       <c r="MX1" t="inlineStr">
         <is>
-          <t>2024年06月04日</t>
+          <t>2024年06月12日</t>
         </is>
       </c>
       <c r="MY1" t="inlineStr">
         <is>
-          <t>2024年06月07日</t>
+          <t>2024年06月17日</t>
         </is>
       </c>
       <c r="MZ1" t="inlineStr">
         <is>
-          <t>2024年06月12日</t>
+          <t>2024年06月20日</t>
         </is>
       </c>
       <c r="NA1" t="inlineStr">
         <is>
-          <t>2024年06月17日</t>
+          <t>2024年06月25日</t>
         </is>
       </c>
       <c r="NB1" t="inlineStr">
         <is>
-          <t>2024年06月20日</t>
+          <t>2024年06月28日</t>
         </is>
       </c>
       <c r="NC1" t="inlineStr">
         <is>
-          <t>2024年06月25日</t>
+          <t>2024年07月03日</t>
         </is>
       </c>
       <c r="ND1" t="inlineStr">
         <is>
-          <t>2024年06月28日</t>
+          <t>2024年07月08日</t>
         </is>
       </c>
       <c r="NE1" t="inlineStr">
         <is>
-          <t>2024年07月03日</t>
+          <t>2024年07月11日</t>
         </is>
       </c>
       <c r="NF1" t="inlineStr">
         <is>
-          <t>2024年07月08日</t>
+          <t>2024年07月16日</t>
         </is>
       </c>
       <c r="NG1" t="inlineStr">
         <is>
-          <t>2024年07月11日</t>
+          <t>2024年07月19日</t>
         </is>
       </c>
       <c r="NH1" t="inlineStr">
         <is>
-          <t>2024年07月16日</t>
+          <t>2024年07月24日</t>
         </is>
       </c>
       <c r="NI1" t="inlineStr">
         <is>
-          <t>2024年07月19日</t>
+          <t>2024年07月29日</t>
         </is>
       </c>
       <c r="NJ1" t="inlineStr">
         <is>
-          <t>2024年07月24日</t>
+          <t>2024年08月01日</t>
         </is>
       </c>
       <c r="NK1" t="inlineStr">
         <is>
-          <t>2024年07月29日</t>
+          <t>2024年08月06日</t>
         </is>
       </c>
       <c r="NL1" t="inlineStr">
         <is>
-          <t>2024年08月01日</t>
+          <t>2024年08月09日</t>
         </is>
       </c>
       <c r="NM1" t="inlineStr">
         <is>
-          <t>2024年08月06日</t>
+          <t>2024年08月14日</t>
         </is>
       </c>
       <c r="NN1" t="inlineStr">
         <is>
-          <t>2024年08月09日</t>
+          <t>2024年08月19日</t>
         </is>
       </c>
       <c r="NO1" t="inlineStr">
         <is>
-          <t>2024年08月14日</t>
+          <t>2024年08月22日</t>
         </is>
       </c>
       <c r="NP1" t="inlineStr">
         <is>
-          <t>2024年08月19日</t>
+          <t>2024年08月28日</t>
         </is>
       </c>
       <c r="NQ1" t="inlineStr">
         <is>
-          <t>2024年08月22日</t>
+          <t>2024年09月02日</t>
         </is>
       </c>
       <c r="NR1" t="inlineStr">
         <is>
-          <t>2024年08月28日</t>
+          <t>2024年09月05日</t>
         </is>
       </c>
       <c r="NS1" t="inlineStr">
         <is>
-          <t>2024年09月02日</t>
+          <t>2024年09月10日</t>
         </is>
       </c>
       <c r="NT1" t="inlineStr">
         <is>
-          <t>2024年09月05日</t>
+          <t>2024年09月13日</t>
         </is>
       </c>
       <c r="NU1" t="inlineStr">
         <is>
-          <t>2024年09月10日</t>
+          <t>2024年09月18日</t>
         </is>
       </c>
       <c r="NV1" t="inlineStr">
         <is>
-          <t>2024年09月13日</t>
+          <t>2024年09月23日</t>
         </is>
       </c>
       <c r="NW1" t="inlineStr">
         <is>
-          <t>2024年09月18日</t>
+          <t>2024年09月26日</t>
         </is>
       </c>
       <c r="NX1" t="inlineStr">
         <is>
-          <t>2024年09月23日</t>
+          <t>2024年10月01日</t>
         </is>
       </c>
       <c r="NY1" t="inlineStr">
         <is>
-          <t>2024年09月26日</t>
+          <t>2024年10月04日</t>
         </is>
       </c>
       <c r="NZ1" t="inlineStr">
         <is>
-          <t>2024年10月01日</t>
+          <t>2024年10月09日</t>
         </is>
       </c>
       <c r="OA1" t="inlineStr">
         <is>
-          <t>2024年10月04日</t>
+          <t>2024年10月14日</t>
         </is>
       </c>
       <c r="OB1" t="inlineStr">
         <is>
-          <t>2024年10月09日</t>
+          <t>2024年10月17日</t>
         </is>
       </c>
       <c r="OC1" t="inlineStr">
         <is>
-          <t>2024年10月14日</t>
+          <t>2024年10月22日</t>
         </is>
       </c>
       <c r="OD1" t="inlineStr">
         <is>
-          <t>2024年10月17日</t>
+          <t>2024年10月25日</t>
         </is>
       </c>
       <c r="OE1" t="inlineStr">
         <is>
-          <t>2024年10月22日</t>
+          <t>2024年10月30日</t>
         </is>
       </c>
       <c r="OF1" t="inlineStr">
         <is>
-          <t>2024年10月25日</t>
+          <t>2024年11月04日</t>
         </is>
       </c>
       <c r="OG1" t="inlineStr">
         <is>
-          <t>2024年10月30日</t>
+          <t>2024年11月07日</t>
         </is>
       </c>
       <c r="OH1" t="inlineStr">
         <is>
-          <t>2024年11月04日</t>
+          <t>2024年11月12日</t>
         </is>
       </c>
       <c r="OI1" t="inlineStr">
         <is>
-          <t>2024年11月07日</t>
+          <t>2024年11月15日</t>
         </is>
       </c>
       <c r="OJ1" t="inlineStr">
         <is>
-          <t>2024年11月12日</t>
+          <t>2024年11月20日</t>
         </is>
       </c>
       <c r="OK1" t="inlineStr">
         <is>
-          <t>2024年11月15日</t>
+          <t>2024年11月25日</t>
         </is>
       </c>
       <c r="OL1" t="inlineStr">
         <is>
-          <t>2024年11月20日</t>
+          <t>2024年11月28日</t>
         </is>
       </c>
       <c r="OM1" t="inlineStr">
         <is>
-          <t>2024年11月25日</t>
+          <t>2024年12月03日</t>
         </is>
       </c>
       <c r="ON1" t="inlineStr">
         <is>
-          <t>2024年11月28日</t>
+          <t>2024年12月06日</t>
         </is>
       </c>
       <c r="OO1" t="inlineStr">
         <is>
-          <t>2024年12月03日</t>
+          <t>2024年12月11日</t>
         </is>
       </c>
       <c r="OP1" t="inlineStr">
         <is>
-          <t>2024年12月06日</t>
+          <t>2024年12月16日</t>
         </is>
       </c>
       <c r="OQ1" t="inlineStr">
         <is>
-          <t>2024年12月11日</t>
+          <t>2024年12月19日</t>
         </is>
       </c>
       <c r="OR1" t="inlineStr">
         <is>
-          <t>2024年12月16日</t>
+          <t>2024年12月27日</t>
         </is>
       </c>
       <c r="OS1" t="inlineStr">
         <is>
-          <t>2024年12月19日</t>
+          <t>2025年01月03日</t>
         </is>
       </c>
       <c r="OT1" t="inlineStr">
         <is>
-          <t>2024年12月27日</t>
+          <t>2025年01月08日</t>
         </is>
       </c>
       <c r="OU1" t="inlineStr">
         <is>
-          <t>2025年01月03日</t>
+          <t>2025年01月13日</t>
         </is>
       </c>
       <c r="OV1" t="inlineStr">
         <is>
-          <t>2025年01月08日</t>
+          <t>2025年01月16日</t>
         </is>
       </c>
       <c r="OW1" t="inlineStr">
         <is>
-          <t>2025年01月13日</t>
+          <t>2025年01月21日</t>
         </is>
       </c>
       <c r="OX1" t="inlineStr">
         <is>
-          <t>2025年01月16日</t>
+          <t>2025年01月24日</t>
         </is>
       </c>
       <c r="OY1" t="inlineStr">
         <is>
-          <t>2025年01月21日</t>
+          <t>2025年01月29日</t>
         </is>
       </c>
       <c r="OZ1" t="inlineStr">
         <is>
-          <t>2025年01月24日</t>
+          <t>2025年02月03日</t>
         </is>
       </c>
       <c r="PA1" t="inlineStr">
         <is>
-          <t>2025年01月29日</t>
+          <t>2025年02月06日</t>
         </is>
       </c>
       <c r="PB1" t="inlineStr">
         <is>
-          <t>2025年02月03日</t>
+          <t>2025年02月11日</t>
         </is>
       </c>
       <c r="PC1" t="inlineStr">
         <is>
-          <t>2025年02月05日</t>
+          <t>2025年02月14日</t>
         </is>
       </c>
     </row>
@@ -2521,1258 +2521,1258 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.65</v>
+        <v>1580.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1563.7</v>
+        <v>1619</v>
       </c>
       <c r="D2" t="n">
-        <v>1580.8</v>
+        <v>1650.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1619</v>
+        <v>1609.85</v>
       </c>
       <c r="F2" t="n">
-        <v>1650.3</v>
+        <v>1641.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1609.85</v>
+        <v>1672.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1641.85</v>
+        <v>1570.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1672.5</v>
+        <v>1536.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1570.7</v>
+        <v>1494.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1536.2</v>
+        <v>1605.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1494.4</v>
+        <v>1618.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1605.45</v>
+        <v>1616.8</v>
       </c>
       <c r="N2" t="n">
-        <v>1618.3</v>
+        <v>1649.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1616.8</v>
+        <v>1741.9</v>
       </c>
       <c r="P2" t="n">
-        <v>1649.25</v>
+        <v>1692.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1741.9</v>
+        <v>1710.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1692.55</v>
+        <v>1714.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1710.55</v>
+        <v>1702.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.95</v>
+        <v>1699.55</v>
       </c>
       <c r="U2" t="n">
         <v>1702.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1699.55</v>
+        <v>1731.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.75</v>
+        <v>1737.95</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.6</v>
+        <v>1733.55</v>
       </c>
       <c r="Y2" t="n">
-        <v>1737.95</v>
+        <v>1717.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>1733.55</v>
+        <v>1742.15</v>
       </c>
       <c r="AA2" t="n">
-        <v>1717.35</v>
+        <v>1683.45</v>
       </c>
       <c r="AB2" t="n">
-        <v>1742.15</v>
+        <v>1722.05</v>
       </c>
       <c r="AC2" t="n">
-        <v>1683.45</v>
+        <v>1710.45</v>
       </c>
       <c r="AD2" t="n">
-        <v>1722.05</v>
+        <v>1719.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1710.45</v>
+        <v>1768.9</v>
       </c>
       <c r="AF2" t="n">
-        <v>1719.5</v>
+        <v>1747.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>1768.9</v>
+        <v>1771.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>1747.6</v>
+        <v>1787.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>1771.05</v>
+        <v>1812.1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1787.9</v>
+        <v>1801.9</v>
       </c>
       <c r="AK2" t="n">
-        <v>1812.1</v>
+        <v>1807.35</v>
       </c>
       <c r="AL2" t="n">
-        <v>1801.9</v>
+        <v>1852.4</v>
       </c>
       <c r="AM2" t="n">
-        <v>1807.35</v>
+        <v>1936.65</v>
       </c>
       <c r="AN2" t="n">
-        <v>1852.4</v>
+        <v>1957.65</v>
       </c>
       <c r="AO2" t="n">
-        <v>1936.65</v>
+        <v>1977.9</v>
       </c>
       <c r="AP2" t="n">
-        <v>1957.65</v>
+        <v>2031.15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1977.9</v>
+        <v>1931.9</v>
       </c>
       <c r="AR2" t="n">
-        <v>2031.15</v>
+        <v>1972.85</v>
       </c>
       <c r="AS2" t="n">
-        <v>1931.9</v>
+        <v>1927.15</v>
       </c>
       <c r="AT2" t="n">
-        <v>1972.85</v>
+        <v>1911.15</v>
       </c>
       <c r="AU2" t="n">
-        <v>1927.15</v>
+        <v>1957.35</v>
       </c>
       <c r="AV2" t="n">
-        <v>1911.15</v>
+        <v>1940.45</v>
       </c>
       <c r="AW2" t="n">
-        <v>1957.35</v>
+        <v>1910.95</v>
       </c>
       <c r="AX2" t="n">
-        <v>1940.45</v>
+        <v>1947.4</v>
       </c>
       <c r="AY2" t="n">
-        <v>1910.95</v>
+        <v>1961.8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1947.4</v>
+        <v>1909.35</v>
       </c>
       <c r="BA2" t="n">
-        <v>1961.8</v>
+        <v>1861.75</v>
       </c>
       <c r="BB2" t="n">
-        <v>1909.35</v>
+        <v>1883.95</v>
       </c>
       <c r="BC2" t="n">
-        <v>1861.75</v>
+        <v>1903.05</v>
       </c>
       <c r="BD2" t="n">
-        <v>1883.95</v>
+        <v>1884.5</v>
       </c>
       <c r="BE2" t="n">
-        <v>1903.05</v>
+        <v>1925.5</v>
       </c>
       <c r="BF2" t="n">
-        <v>1884.5</v>
+        <v>1891.9</v>
       </c>
       <c r="BG2" t="n">
-        <v>1925.5</v>
+        <v>1898.4</v>
       </c>
       <c r="BH2" t="n">
-        <v>1891.9</v>
+        <v>1903.65</v>
       </c>
       <c r="BI2" t="n">
-        <v>1898.4</v>
+        <v>1869.95</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1903.65</v>
+        <v>1889.9</v>
       </c>
       <c r="BK2" t="n">
-        <v>1869.95</v>
+        <v>1938.45</v>
       </c>
       <c r="BL2" t="n">
-        <v>1889.9</v>
+        <v>1878.7</v>
       </c>
       <c r="BM2" t="n">
-        <v>1938.45</v>
+        <v>1890.9</v>
       </c>
       <c r="BN2" t="n">
-        <v>1878.7</v>
+        <v>1876.1</v>
       </c>
       <c r="BO2" t="n">
-        <v>1890.9</v>
+        <v>1840.2</v>
       </c>
       <c r="BP2" t="n">
-        <v>1876.1</v>
+        <v>1807.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1840.2</v>
+        <v>1810.75</v>
       </c>
       <c r="BR2" t="n">
-        <v>1807.4</v>
+        <v>1843</v>
       </c>
       <c r="BS2" t="n">
-        <v>1810.75</v>
+        <v>1841.75</v>
       </c>
       <c r="BT2" t="n">
+        <v>1831.15</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1890.75</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1877.1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1887.6</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1931.95</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1847.25</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1841.75</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1834.7</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1852.7</v>
+      </c>
+      <c r="CC2" t="n">
         <v>1843</v>
       </c>
-      <c r="BU2" t="n">
-        <v>1841.75</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1831.15</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1890.75</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1877.1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1887.6</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1931.95</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1847.25</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1841.75</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1834.7</v>
-      </c>
       <c r="CD2" t="n">
-        <v>1852.7</v>
+        <v>1862.95</v>
       </c>
       <c r="CE2" t="n">
-        <v>1843</v>
+        <v>1785.9</v>
       </c>
       <c r="CF2" t="n">
-        <v>1862.95</v>
+        <v>1839.6</v>
       </c>
       <c r="CG2" t="n">
-        <v>1785.9</v>
+        <v>1816.35</v>
       </c>
       <c r="CH2" t="n">
-        <v>1839.6</v>
+        <v>1780.7</v>
       </c>
       <c r="CI2" t="n">
-        <v>1816.35</v>
+        <v>1807.45</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1780.7</v>
+        <v>1779.65</v>
       </c>
       <c r="CK2" t="n">
-        <v>1807.45</v>
+        <v>1723.85</v>
       </c>
       <c r="CL2" t="n">
-        <v>1779.65</v>
+        <v>1696.25</v>
       </c>
       <c r="CM2" t="n">
-        <v>1723.85</v>
+        <v>1716.2</v>
       </c>
       <c r="CN2" t="n">
-        <v>1696.25</v>
+        <v>1723.65</v>
       </c>
       <c r="CO2" t="n">
-        <v>1716.2</v>
+        <v>1725.9</v>
       </c>
       <c r="CP2" t="n">
-        <v>1723.65</v>
+        <v>1726.2</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1725.9</v>
+        <v>1731.8</v>
       </c>
       <c r="CR2" t="n">
-        <v>1726.2</v>
+        <v>1691.05</v>
       </c>
       <c r="CS2" t="n">
-        <v>1731.8</v>
+        <v>1738.05</v>
       </c>
       <c r="CT2" t="n">
-        <v>1691.05</v>
+        <v>1732.85</v>
       </c>
       <c r="CU2" t="n">
-        <v>1738.05</v>
+        <v>1757.2</v>
       </c>
       <c r="CV2" t="n">
-        <v>1732.85</v>
+        <v>1777.85</v>
       </c>
       <c r="CW2" t="n">
-        <v>1757.2</v>
+        <v>1781.8</v>
       </c>
       <c r="CX2" t="n">
-        <v>1777.85</v>
+        <v>1772.2</v>
       </c>
       <c r="CY2" t="n">
-        <v>1781.8</v>
+        <v>1797.75</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1772.2</v>
+        <v>1836.55</v>
       </c>
       <c r="DA2" t="n">
-        <v>1797.75</v>
+        <v>1830.7</v>
       </c>
       <c r="DB2" t="n">
-        <v>1836.55</v>
+        <v>1853.7</v>
       </c>
       <c r="DC2" t="n">
-        <v>1830.7</v>
+        <v>1878.3</v>
       </c>
       <c r="DD2" t="n">
-        <v>1853.7</v>
+        <v>1887</v>
       </c>
       <c r="DE2" t="n">
-        <v>1878.3</v>
+        <v>1899.95</v>
       </c>
       <c r="DF2" t="n">
-        <v>1887</v>
+        <v>1866.55</v>
       </c>
       <c r="DG2" t="n">
-        <v>1899.95</v>
+        <v>1893.15</v>
       </c>
       <c r="DH2" t="n">
-        <v>1866.55</v>
+        <v>1881.05</v>
       </c>
       <c r="DI2" t="n">
-        <v>1893.15</v>
+        <v>1860.75</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1881.05</v>
+        <v>1775.05</v>
       </c>
       <c r="DK2" t="n">
-        <v>1860.75</v>
+        <v>1784.85</v>
       </c>
       <c r="DL2" t="n">
-        <v>1775.05</v>
+        <v>1755.45</v>
       </c>
       <c r="DM2" t="n">
-        <v>1784.85</v>
+        <v>1786.15</v>
       </c>
       <c r="DN2" t="n">
-        <v>1755.45</v>
+        <v>1804.65</v>
       </c>
       <c r="DO2" t="n">
-        <v>1786.15</v>
+        <v>1792.4</v>
       </c>
       <c r="DP2" t="n">
-        <v>1804.65</v>
+        <v>1823.75</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1792.4</v>
+        <v>1823.05</v>
       </c>
       <c r="DR2" t="n">
+        <v>1799.6</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1796.6</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1811.45</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1800.75</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1723.35</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1773.85</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>1783.45</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1802</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1786.6</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1811.8</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1821.6</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>1792.75</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1755.95</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1773.4</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1755.3</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1742.8</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1753.2</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1773.25</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1785.7</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1767.85</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1779.3</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1785.55</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>1769.15</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1763.45</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1822.35</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1857.9</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>1859.2</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>1861.1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>1782.05</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1785.95</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1765</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1781.35</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1779.75</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1768.65</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1796.3</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>1805.2</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1811.4</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1792.6</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1821.4</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1817.85</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1845.35</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1847.3</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1788.15</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1803.65</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1813.55</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1835.35</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1848.55</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1893.6</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>1904.7</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1909.85</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1929.6</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>2039.05</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1978.7</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1913.2</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1935.05</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1965.2</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1929.4</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1930.15</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1951.55</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1963.25</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1943.7</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1904.6</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1911.3</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1892.3</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1857.35</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1811.55</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1810.65</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1856.2</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1848.25</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1838.7</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1849.6</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1830</v>
+      </c>
+      <c r="GN2" t="n">
         <v>1823.75</v>
       </c>
-      <c r="DS2" t="n">
-        <v>1823.05</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1799.6</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>1796.6</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1811.45</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1800.75</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>1723.35</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1773.85</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1783.45</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1802</v>
-      </c>
-      <c r="EB2" t="n">
+      <c r="GO2" t="n">
+        <v>1836.5</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1841.9</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1819.05</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1797.45</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1754.3</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1700.7</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1713.05</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1736.95</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1714.05</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1772.4</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1783.2</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1795.25</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1792.1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1767.2</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>1733.25</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1753.55</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1715.9</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1710.95</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1709.35</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1704.85</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1664.65</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1671.85</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1634.3</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1671.75</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1700.5</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1676.55</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1648.1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1653</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1643.25</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1666.75</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1639</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1628.75</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1678.65</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1759.35</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1773</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1740.4</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1755.4</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1752.7</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1784.75</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1782.2</v>
+      </c>
+      <c r="ID2" t="n">
         <v>1786.6</v>
       </c>
-      <c r="EC2" t="n">
-        <v>1811.8</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1821.6</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1788.25</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1792.75</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1755.95</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1773.4</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1755.3</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1742.8</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>1753.2</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1773.25</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1785.7</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1767.85</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1779.3</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1785.55</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>1769.15</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>1763.45</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>1822.35</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1857.9</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1859.2</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1861.1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1782.05</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1785.95</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1765</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1781.35</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1779.75</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>1768.65</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1796.3</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1805.2</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1811.4</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>1792.6</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>1821.4</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>1817.85</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1845.35</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1847.3</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1788.15</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1803.65</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1813.55</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1835.35</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1848.55</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1893.6</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1904.7</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1909.85</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1929.6</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>2039.05</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1978.7</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1913.2</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1935.05</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1965.2</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>1910</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1929.4</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1930.15</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1951.55</v>
-      </c>
-      <c r="GC2" t="n">
+      <c r="IE2" t="n">
+        <v>1783.55</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1813.9</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1803.35</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1857.3</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1878.85</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1882.55</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1913.8</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1924.9</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1930.8</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>1924.1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1921.65</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1870.7</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>1859.7</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>1831.2</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>1845.8</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1826.05</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>1824.6</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>1841.15</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>1816.3</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>1911.3</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>1922.75</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>1952.5</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>1993.8</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1965</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>1983.3</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>2001.9</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>2048.45</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>1999.4</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>1973.65</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>1995.4</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>2000.95</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>2015.95</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>2007.45</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>1961.6</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1969.65</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1952.45</v>
+      </c>
+      <c r="JP2" t="n">
         <v>1963.25</v>
       </c>
-      <c r="GD2" t="n">
-        <v>1943.7</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>1904.6</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>1911.3</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1892.3</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1857.35</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>1811.55</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1810.65</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1856.2</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1848.25</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1838.7</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1849.6</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1830</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1823.75</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1836.5</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1841.9</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1819.05</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>1797.45</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1754.3</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1740</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1700.7</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1713.05</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1736.95</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1714.05</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1772.4</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1783.2</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>1795.25</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1792.1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>1767.2</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1733.25</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1753.55</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>1715.9</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1710.95</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>1709.35</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>1704.85</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1664.65</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1671.85</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1634.3</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1671.75</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1700.5</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1676.55</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1648.1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1653</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1643.25</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1666.75</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>1639</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>1628.75</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>1678.65</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1759.35</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1773</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1740.4</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1755.4</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>1752.7</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1784.75</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1782.2</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1786.6</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1783.55</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>1813.9</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1803.35</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1857.3</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1878.85</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1882.55</v>
-      </c>
-      <c r="IM2" t="n">
+      <c r="JQ2" t="n">
+        <v>1967.35</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>1952.9</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>1952.35</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1930.45</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>1930.7</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>1908.4</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>1928.75</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1908.8</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>1933.95</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>1953.7</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>1975.35</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>1960</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>1945.35</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>1947.2</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>1942.45</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>1922.75</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>1903.75</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>1896.35</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>1892.75</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>1915.5</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>1942.3</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>1926.1</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>1927.8</v>
+      </c>
+      <c r="KN2" t="n">
         <v>1913.8</v>
       </c>
-      <c r="IN2" t="n">
-        <v>1924.9</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>1930.8</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>1924.1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>1921.65</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1870.7</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>1859.7</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1831.2</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1845.8</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1826.05</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1824.6</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1841.15</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1816.3</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>1911.3</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>1922.75</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1952.5</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>1993.8</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1965</v>
-      </c>
-      <c r="JE2" t="n">
+      <c r="KO2" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>1915</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>1907.05</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>1870.5</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>1818.95</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>1874</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>1928.2</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>1988.5</v>
+      </c>
+      <c r="KX2" t="n">
         <v>1983.3</v>
       </c>
-      <c r="JF2" t="n">
-        <v>2001.9</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>2048.45</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1999.4</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1973.65</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>2003</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1995.4</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>2000.95</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>2015.95</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>2007.45</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1961.6</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>1969.65</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>1952.45</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>1963.25</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>1967.35</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>1952.9</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>1952.35</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>1930.45</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>1930.7</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>1908.4</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>1928.75</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>1908.8</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>1933.95</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>1953.7</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>1975.35</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>1960</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>1945.35</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>1947.2</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>1942.45</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>1922.75</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>1903.75</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>1896.35</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>1892.75</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>1915.5</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>1942.3</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>1926.1</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>1927.8</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>1913.8</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>1923.5</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>1915</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>1907.05</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>1870.5</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>1818.95</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>1845.5</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>1874</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>1928.2</v>
-      </c>
       <c r="KY2" t="n">
-        <v>1988.5</v>
+        <v>1997.6</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1983.3</v>
+        <v>1983.6</v>
       </c>
       <c r="LA2" t="n">
-        <v>1997.6</v>
+        <v>1960.7</v>
       </c>
       <c r="LB2" t="n">
-        <v>1983.6</v>
+        <v>1941.65</v>
       </c>
       <c r="LC2" t="n">
-        <v>1960.7</v>
+        <v>1958.2</v>
       </c>
       <c r="LD2" t="n">
-        <v>1941.65</v>
+        <v>1968.7</v>
       </c>
       <c r="LE2" t="n">
-        <v>1958.2</v>
+        <v>1992.85</v>
       </c>
       <c r="LF2" t="n">
-        <v>1968.7</v>
+        <v>2025.65</v>
       </c>
       <c r="LG2" t="n">
-        <v>1992.85</v>
+        <v>2045.4</v>
       </c>
       <c r="LH2" t="n">
-        <v>2025.65</v>
+        <v>2026.4</v>
       </c>
       <c r="LI2" t="n">
-        <v>2045.4</v>
+        <v>1986.65</v>
       </c>
       <c r="LJ2" t="n">
-        <v>2026.4</v>
+        <v>2046.1</v>
       </c>
       <c r="LK2" t="n">
-        <v>1986.65</v>
+        <v>2041.35</v>
       </c>
       <c r="LL2" t="n">
-        <v>2046.1</v>
+        <v>2069.4</v>
       </c>
       <c r="LM2" t="n">
-        <v>2041.35</v>
+        <v>2042.1</v>
       </c>
       <c r="LN2" t="n">
-        <v>2069.4</v>
+        <v>2025.1</v>
       </c>
       <c r="LO2" t="n">
-        <v>2042.1</v>
+        <v>2029.15</v>
       </c>
       <c r="LP2" t="n">
-        <v>2025.1</v>
+        <v>2038.15</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2029.15</v>
+        <v>2028.55</v>
       </c>
       <c r="LR2" t="n">
-        <v>2038.15</v>
+        <v>2024.65</v>
       </c>
       <c r="LS2" t="n">
-        <v>2028.55</v>
+        <v>2022.5</v>
       </c>
       <c r="LT2" t="n">
-        <v>2024.65</v>
+        <v>2045.85</v>
       </c>
       <c r="LU2" t="n">
-        <v>2022.5</v>
+        <v>2030.8</v>
       </c>
       <c r="LV2" t="n">
-        <v>2045.85</v>
+        <v>2023.5</v>
       </c>
       <c r="LW2" t="n">
-        <v>2030.8</v>
+        <v>1985.1</v>
       </c>
       <c r="LX2" t="n">
-        <v>2023.5</v>
+        <v>2017.05</v>
       </c>
       <c r="LY2" t="n">
-        <v>1985.1</v>
+        <v>2024</v>
       </c>
       <c r="LZ2" t="n">
-        <v>2017.05</v>
+        <v>2035.05</v>
       </c>
       <c r="MA2" t="n">
-        <v>2024</v>
+        <v>2049.8</v>
       </c>
       <c r="MB2" t="n">
-        <v>2035.05</v>
+        <v>2142.85</v>
       </c>
       <c r="MC2" t="n">
-        <v>2049.8</v>
+        <v>2180.45</v>
       </c>
       <c r="MD2" t="n">
-        <v>2142.85</v>
+        <v>2160.8</v>
       </c>
       <c r="ME2" t="n">
-        <v>2180.45</v>
+        <v>2154.9</v>
       </c>
       <c r="MF2" t="n">
-        <v>2160.8</v>
+        <v>2171.6</v>
       </c>
       <c r="MG2" t="n">
-        <v>2154.9</v>
+        <v>2192.7</v>
       </c>
       <c r="MH2" t="n">
-        <v>2171.6</v>
+        <v>2280.15</v>
       </c>
       <c r="MI2" t="n">
-        <v>2192.7</v>
+        <v>2320.25</v>
       </c>
       <c r="MJ2" t="n">
-        <v>2280.15</v>
+        <v>2345.65</v>
       </c>
       <c r="MK2" t="n">
+        <v>2369.15</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>2379.7</v>
+      </c>
+      <c r="MM2" t="n">
         <v>2320.25</v>
       </c>
-      <c r="ML2" t="n">
-        <v>2345.65</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>2369.15</v>
-      </c>
       <c r="MN2" t="n">
-        <v>2379.7</v>
+        <v>2333.55</v>
       </c>
       <c r="MO2" t="n">
-        <v>2320.25</v>
+        <v>2288.85</v>
       </c>
       <c r="MP2" t="n">
-        <v>2333.55</v>
+        <v>2309.05</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2288.85</v>
+        <v>2343.8</v>
       </c>
       <c r="MR2" t="n">
-        <v>2309.05</v>
+        <v>2377.4</v>
       </c>
       <c r="MS2" t="n">
-        <v>2343.8</v>
+        <v>2427.3</v>
       </c>
       <c r="MT2" t="n">
-        <v>2377.4</v>
+        <v>2342.7</v>
       </c>
       <c r="MU2" t="n">
-        <v>2427.3</v>
+        <v>2348.55</v>
       </c>
       <c r="MV2" t="n">
-        <v>2342.7</v>
+        <v>2326</v>
       </c>
       <c r="MW2" t="n">
-        <v>2348.55</v>
+        <v>2310.8</v>
       </c>
       <c r="MX2" t="n">
-        <v>2326</v>
+        <v>2326.25</v>
       </c>
       <c r="MY2" t="n">
-        <v>2310.8</v>
+        <v>2319.9</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2326.25</v>
+        <v>2351.6</v>
       </c>
       <c r="NA2" t="n">
-        <v>2319.9</v>
+        <v>2325.05</v>
       </c>
       <c r="NB2" t="n">
-        <v>2351.6</v>
+        <v>2330.9</v>
       </c>
       <c r="NC2" t="n">
-        <v>2325.05</v>
+        <v>2361.35</v>
       </c>
       <c r="ND2" t="n">
-        <v>2330.9</v>
+        <v>2376.65</v>
       </c>
       <c r="NE2" t="n">
-        <v>2361.35</v>
+        <v>2409.2</v>
       </c>
       <c r="NF2" t="n">
-        <v>2376.65</v>
+        <v>2443.2</v>
       </c>
       <c r="NG2" t="n">
-        <v>2409.2</v>
+        <v>2403.5</v>
       </c>
       <c r="NH2" t="n">
-        <v>2443.2</v>
+        <v>2421.45</v>
       </c>
       <c r="NI2" t="n">
-        <v>2403.5</v>
+        <v>2391.1</v>
       </c>
       <c r="NJ2" t="n">
-        <v>2421.45</v>
+        <v>2454.55</v>
       </c>
       <c r="NK2" t="n">
-        <v>2391.1</v>
+        <v>2396.55</v>
       </c>
       <c r="NL2" t="n">
-        <v>2454.55</v>
+        <v>2427.35</v>
       </c>
       <c r="NM2" t="n">
-        <v>2396.55</v>
+        <v>2456.7</v>
       </c>
       <c r="NN2" t="n">
-        <v>2427.35</v>
+        <v>2494.55</v>
       </c>
       <c r="NO2" t="n">
-        <v>2456.7</v>
+        <v>2483</v>
       </c>
       <c r="NP2" t="n">
-        <v>2494.55</v>
+        <v>2505.25</v>
       </c>
       <c r="NQ2" t="n">
-        <v>2483</v>
+        <v>2498.6</v>
       </c>
       <c r="NR2" t="n">
-        <v>2505.25</v>
+        <v>2509.55</v>
       </c>
       <c r="NS2" t="n">
-        <v>2498.6</v>
+        <v>2506.3</v>
       </c>
       <c r="NT2" t="n">
-        <v>2509.55</v>
+        <v>2575.1</v>
       </c>
       <c r="NU2" t="n">
-        <v>2506.3</v>
+        <v>2570.1</v>
       </c>
       <c r="NV2" t="n">
-        <v>2575.1</v>
+        <v>2629.95</v>
       </c>
       <c r="NW2" t="n">
-        <v>2570.1</v>
+        <v>2663.75</v>
       </c>
       <c r="NX2" t="n">
-        <v>2629.95</v>
+        <v>2667.55</v>
       </c>
       <c r="NY2" t="n">
-        <v>2663.75</v>
+        <v>2650.05</v>
       </c>
       <c r="NZ2" t="n">
-        <v>2667.55</v>
+        <v>2610.7</v>
       </c>
       <c r="OA2" t="n">
-        <v>2650.05</v>
+        <v>2654.9</v>
       </c>
       <c r="OB2" t="n">
-        <v>2610.7</v>
+        <v>2688.85</v>
       </c>
       <c r="OC2" t="n">
-        <v>2654.9</v>
+        <v>2736.5</v>
       </c>
       <c r="OD2" t="n">
-        <v>2688.85</v>
+        <v>2731.45</v>
       </c>
       <c r="OE2" t="n">
-        <v>2736.5</v>
+        <v>2777.8</v>
       </c>
       <c r="OF2" t="n">
-        <v>2731.45</v>
+        <v>2742.6</v>
       </c>
       <c r="OG2" t="n">
-        <v>2777.8</v>
+        <v>2692</v>
       </c>
       <c r="OH2" t="n">
-        <v>2742.6</v>
+        <v>2606.85</v>
       </c>
       <c r="OI2" t="n">
-        <v>2692</v>
+        <v>2571.8</v>
       </c>
       <c r="OJ2" t="n">
-        <v>2606.85</v>
+        <v>2640.55</v>
       </c>
       <c r="OK2" t="n">
-        <v>2571.8</v>
+        <v>2635.4</v>
       </c>
       <c r="OL2" t="n">
-        <v>2640.55</v>
+        <v>2641.85</v>
       </c>
       <c r="OM2" t="n">
-        <v>2635.4</v>
+        <v>2640.65</v>
       </c>
       <c r="ON2" t="n">
-        <v>2641.85</v>
+        <v>2637.3</v>
       </c>
       <c r="OO2" t="n">
-        <v>2640.65</v>
+        <v>2705.45</v>
       </c>
       <c r="OP2" t="n">
-        <v>2637.3</v>
+        <v>2654.2</v>
       </c>
       <c r="OQ2" t="n">
-        <v>2705.45</v>
+        <v>2592.45</v>
       </c>
       <c r="OR2" t="n">
-        <v>2654.2</v>
+        <v>2615.95</v>
       </c>
       <c r="OS2" t="n">
-        <v>2592.45</v>
+        <v>2646.8</v>
       </c>
       <c r="OT2" t="n">
-        <v>2615.95</v>
+        <v>2659.65</v>
       </c>
       <c r="OU2" t="n">
-        <v>2646.8</v>
+        <v>2669.5</v>
       </c>
       <c r="OV2" t="n">
-        <v>2659.65</v>
+        <v>2716.5</v>
       </c>
       <c r="OW2" t="n">
-        <v>2669.5</v>
+        <v>2737.8</v>
       </c>
       <c r="OX2" t="n">
-        <v>2716.5</v>
+        <v>2776.8</v>
       </c>
       <c r="OY2" t="n">
-        <v>2737.8</v>
+        <v>2756.3</v>
       </c>
       <c r="OZ2" t="n">
-        <v>2776.8</v>
+        <v>2826.1</v>
       </c>
       <c r="PA2" t="n">
-        <v>2756.3</v>
+        <v>2838.95</v>
       </c>
       <c r="PB2" t="n">
-        <v>2826.1</v>
+        <v>2895.4</v>
       </c>
       <c r="PC2" t="n">
-        <v>2871.15</v>
+        <v>2921.25</v>
       </c>
     </row>
   </sheetData>
